--- a/output_data/charts/capacity-MadisonCounty-0500000US39097.xlsx
+++ b/output_data/charts/capacity-MadisonCounty-0500000US39097.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -513,10 +513,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7600</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -853,55 +853,55 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7000</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15040</c:v>
+                  <c:v>15.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111110</c:v>
+                  <c:v>111.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3129040</c:v>
+                  <c:v>3129.04</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>144800</c:v>
+                  <c:v>144.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31600</c:v>
+                  <c:v>31.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>158260</c:v>
+                  <c:v>158.26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41450</c:v>
+                  <c:v>41.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72800</c:v>
+                  <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>177490</c:v>
+                  <c:v>177.49</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>161730</c:v>
+                  <c:v>161.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>147224</c:v>
+                  <c:v>147.224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>223700</c:v>
+                  <c:v>223.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4271835</c:v>
+                  <c:v>4271.835</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1373990</c:v>
+                  <c:v>1373.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,13 +1235,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1800</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26000</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1950,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>7000</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>1800</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>15040</v>
+        <v>15.04</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>26000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>111110</v>
+        <v>111.11</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>3129040</v>
+        <v>3129.04</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>144800</v>
+        <v>144.8</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>11000</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>31600</v>
+        <v>31.6</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>158260</v>
+        <v>158.26</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>41450</v>
+        <v>41.45</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>72800</v>
+        <v>72.8</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>177490</v>
+        <v>177.49</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>161730</v>
+        <v>161.73</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>147224</v>
+        <v>147.224</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>223700</v>
+        <v>223.7</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>7600</v>
+        <v>7.6</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>4271835</v>
+        <v>4271.835</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>1373990</v>
+        <v>1373.99</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-MadisonCounty-0500000US39097.xlsx
+++ b/output_data/charts/capacity-MadisonCounty-0500000US39097.xlsx
@@ -895,13 +895,13 @@
                   <c:v>147.224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>223.7</c:v>
+                  <c:v>226.31</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4271.835</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1373.99</c:v>
+                  <c:v>1445.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>223.7</v>
+        <v>226.31</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>1373.99</v>
+        <v>1445.53</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
